--- a/results/df-water-explore.xlsx
+++ b/results/df-water-explore.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>acar</t>
+          <t>cart</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/results/df-water-explore.xlsx
+++ b/results/df-water-explore.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,248 +597,248 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>58.2</v>
       </c>
       <c r="E10">
-        <v>30.2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>20.7</v>
       </c>
       <c r="C11">
-        <v>38.6</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>58.2</v>
+        <v>2.2</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B12">
-        <v>20.7</v>
+        <v>64.2</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>12.3</v>
       </c>
       <c r="D12">
-        <v>2.2</v>
+        <v>68</v>
       </c>
       <c r="E12">
-        <v>1.1</v>
+        <v>14.1</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="G12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B13">
-        <v>64.2</v>
+        <v>10.7</v>
       </c>
       <c r="C13">
-        <v>12.3</v>
+        <v>1.3</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>21.4</v>
       </c>
       <c r="E13">
-        <v>14.1</v>
+        <v>6.7</v>
       </c>
       <c r="F13">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B14">
-        <v>10.7</v>
+        <v>26.1</v>
       </c>
       <c r="C14">
-        <v>1.3</v>
+        <v>10.6</v>
       </c>
       <c r="D14">
-        <v>21.4</v>
+        <v>15.9</v>
       </c>
       <c r="E14">
-        <v>6.7</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B15">
-        <v>11.5</v>
+        <v>33.5</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.5</v>
+        <v>26.9</v>
       </c>
       <c r="E15">
-        <v>1.4</v>
+        <v>17.1</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="B16">
-        <v>26.1</v>
+        <v>5.1</v>
       </c>
       <c r="C16">
-        <v>10.6</v>
+        <v>0.4</v>
       </c>
       <c r="D16">
-        <v>15.9</v>
+        <v>5.5</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>11.5</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B17">
-        <v>33.5</v>
+        <v>5.3</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>26.9</v>
+        <v>4.8</v>
       </c>
       <c r="E17">
-        <v>17.1</v>
+        <v>4.1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Congo Democratic Republic</t>
         </is>
       </c>
       <c r="B18">
+        <v>24.1</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
         <v>5.1</v>
       </c>
-      <c r="C18">
+      <c r="E18">
+        <v>1.4</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>0.4</v>
-      </c>
-      <c r="D18">
-        <v>5.5</v>
-      </c>
-      <c r="E18">
-        <v>11.5</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="B19">
-        <v>5.3</v>
+        <v>39.2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="D19">
-        <v>4.8</v>
+        <v>19.3</v>
       </c>
       <c r="E19">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="F19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0.3</v>
@@ -847,173 +847,173 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Congo Democratic Republic</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B20">
-        <v>24.1</v>
+        <v>2.4</v>
       </c>
       <c r="C20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>5.1</v>
+        <v>28.7</v>
       </c>
       <c r="E20">
-        <v>1.4</v>
+        <v>18.5</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B21">
-        <v>39.2</v>
+        <v>6.1</v>
       </c>
       <c r="C21">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="D21">
-        <v>19.3</v>
+        <v>8.1</v>
       </c>
       <c r="E21">
-        <v>3.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="B22">
-        <v>2.4</v>
+        <v>10.5</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>28.7</v>
+        <v>0.2</v>
       </c>
       <c r="E22">
-        <v>18.5</v>
+        <v>3.3</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B23">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="C23">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="D23">
-        <v>8.1</v>
+        <v>0.9</v>
       </c>
       <c r="E23">
-        <v>8.699999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B24">
-        <v>10.5</v>
+        <v>2.3</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="D24">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="E24">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="B25">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="C25">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="E25">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B26">
-        <v>2.3</v>
+        <v>47</v>
       </c>
       <c r="C26">
-        <v>1.6</v>
+        <v>15.7</v>
       </c>
       <c r="D26">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="E26">
-        <v>0.8</v>
+        <v>11.2</v>
       </c>
       <c r="F26">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G26">
         <v>0.2</v>
@@ -1022,20 +1022,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B27">
-        <v>3.8</v>
+        <v>21.7</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D27">
-        <v>1.3</v>
+        <v>13.4</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>8.9</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1047,95 +1047,95 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B28">
-        <v>47</v>
+        <v>29.4</v>
       </c>
       <c r="C28">
-        <v>15.7</v>
+        <v>0.5</v>
       </c>
       <c r="D28">
-        <v>7.1</v>
+        <v>19.8</v>
       </c>
       <c r="E28">
-        <v>11.2</v>
+        <v>19.8</v>
       </c>
       <c r="F28">
         <v>0.4</v>
       </c>
       <c r="G28">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B29">
-        <v>21.7</v>
+        <v>23.4</v>
       </c>
       <c r="C29">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="D29">
-        <v>13.4</v>
+        <v>26.6</v>
       </c>
       <c r="E29">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B30">
-        <v>29.4</v>
+        <v>52.1</v>
       </c>
       <c r="C30">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="D30">
-        <v>19.8</v>
+        <v>8.9</v>
       </c>
       <c r="E30">
-        <v>19.8</v>
+        <v>17.2</v>
       </c>
       <c r="F30">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="G30">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B31">
-        <v>23.4</v>
+        <v>5.7</v>
       </c>
       <c r="C31">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="D31">
-        <v>26.6</v>
+        <v>10.2</v>
       </c>
       <c r="E31">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="F31">
         <v>0.2</v>
@@ -1147,223 +1147,223 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B32">
-        <v>52.1</v>
+        <v>33.3</v>
       </c>
       <c r="C32">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D32">
-        <v>8.9</v>
+        <v>10.2</v>
       </c>
       <c r="E32">
-        <v>17.2</v>
+        <v>19.6</v>
       </c>
       <c r="F32">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B33">
-        <v>5.7</v>
+        <v>52.1</v>
       </c>
       <c r="C33">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="D33">
-        <v>10.2</v>
+        <v>37.7</v>
       </c>
       <c r="E33">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B34">
-        <v>33.3</v>
+        <v>39.3</v>
       </c>
       <c r="C34">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="D34">
-        <v>10.2</v>
+        <v>78.7</v>
       </c>
       <c r="E34">
-        <v>19.6</v>
+        <v>12.6</v>
       </c>
       <c r="F34">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G34">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B35">
-        <v>52.1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>37.7</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>57.8</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B36">
-        <v>39.3</v>
+        <v>19.9</v>
       </c>
       <c r="C36">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="D36">
-        <v>78.7</v>
+        <v>9.5</v>
       </c>
       <c r="E36">
-        <v>12.6</v>
+        <v>6.2</v>
       </c>
       <c r="F36">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G36">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Kyrgyz Republic</t>
         </is>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E37">
-        <v>57.8</v>
+        <v>46.2</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>2.3</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="D38">
-        <v>9.1</v>
+        <v>0.2</v>
       </c>
       <c r="E38">
-        <v>26.7</v>
+        <v>10.2</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B39">
-        <v>19.9</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="E39">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kyrgyz Republic</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B40">
-        <v>24.4</v>
+        <v>17.6</v>
       </c>
       <c r="C40">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="D40">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="E40">
-        <v>46.2</v>
+        <v>1.4</v>
       </c>
       <c r="F40">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G40">
         <v>0.2</v>
@@ -1372,73 +1372,73 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B41">
-        <v>2.3</v>
+        <v>35.7</v>
       </c>
       <c r="C41">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="E41">
-        <v>10.2</v>
+        <v>2.2</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G41">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>41.3</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>6.8</v>
+        <v>59.9</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G42">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B43">
-        <v>17.6</v>
+        <v>45.9</v>
       </c>
       <c r="C43">
-        <v>8.6</v>
+        <v>41.5</v>
       </c>
       <c r="D43">
-        <v>4.7</v>
+        <v>55.4</v>
       </c>
       <c r="E43">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="F43">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G43">
         <v>0.2</v>
@@ -1447,48 +1447,48 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B44">
-        <v>35.7</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="F44">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="B45">
-        <v>41.3</v>
+        <v>27.2</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>59.9</v>
+        <v>5.8</v>
       </c>
       <c r="E45">
-        <v>5.3</v>
+        <v>22.5</v>
       </c>
       <c r="F45">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1497,198 +1497,198 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B46">
-        <v>45.9</v>
+        <v>25.4</v>
       </c>
       <c r="C46">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>55.4</v>
+        <v>11.3</v>
       </c>
       <c r="E46">
-        <v>5.6</v>
+        <v>14.1</v>
       </c>
       <c r="F46">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="E47">
-        <v>7.5</v>
+        <v>4.3</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="B48">
-        <v>27.2</v>
+        <v>42.2</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>5.8</v>
+        <v>50.2</v>
       </c>
       <c r="E48">
-        <v>22.5</v>
+        <v>5.1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B49">
-        <v>25.4</v>
+        <v>13.5</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>11.3</v>
+        <v>1.8</v>
       </c>
       <c r="E49">
-        <v>14.1</v>
+        <v>26.7</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B50">
-        <v>28.8</v>
+        <v>37.3</v>
       </c>
       <c r="C50">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>9.5</v>
+        <v>18.6</v>
       </c>
       <c r="E50">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="F50">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B51">
-        <v>42.2</v>
+        <v>25.7</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>50.2</v>
+        <v>2.1</v>
       </c>
       <c r="E51">
-        <v>5.1</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B52">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>21.5</v>
       </c>
       <c r="D52">
-        <v>1.8</v>
+        <v>10.9</v>
       </c>
       <c r="E52">
-        <v>26.7</v>
+        <v>2</v>
       </c>
       <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>0.5</v>
-      </c>
-      <c r="G52">
-        <v>0.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B53">
-        <v>37.3</v>
+        <v>12.5</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D53">
-        <v>18.6</v>
+        <v>27.5</v>
       </c>
       <c r="E53">
-        <v>3.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G53">
         <v>0.3</v>
@@ -1697,48 +1697,48 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B54">
-        <v>25.7</v>
+        <v>20.3</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="D54">
-        <v>2.1</v>
+        <v>54.1</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B55">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="C55">
-        <v>21.5</v>
+        <v>0.4</v>
       </c>
       <c r="D55">
-        <v>10.9</v>
+        <v>0.6</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G55">
         <v>0.5</v>
@@ -1747,98 +1747,98 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B56">
-        <v>12.5</v>
+        <v>17.6</v>
       </c>
       <c r="C56">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>27.5</v>
+        <v>12.8</v>
       </c>
       <c r="E56">
-        <v>9.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="F56">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G56">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B57">
-        <v>20.3</v>
+        <v>19.4</v>
       </c>
       <c r="C57">
-        <v>8.5</v>
+        <v>1.9</v>
       </c>
       <c r="D57">
-        <v>54.1</v>
+        <v>35.6</v>
       </c>
       <c r="E57">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="F57">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="G57">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B58">
-        <v>10.3</v>
+        <v>12.1</v>
       </c>
       <c r="C58">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="E58">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="F58">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1847,123 +1847,123 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B60">
-        <v>17.6</v>
+        <v>12.7</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>24.1</v>
       </c>
       <c r="D60">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E60">
-        <v>10.4</v>
+        <v>9</v>
       </c>
       <c r="F60">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B61">
-        <v>19.4</v>
+        <v>7.3</v>
       </c>
       <c r="C61">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="D61">
-        <v>35.6</v>
+        <v>10.3</v>
       </c>
       <c r="E61">
-        <v>9.9</v>
+        <v>2.4</v>
       </c>
       <c r="F61">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="G61">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B62">
-        <v>12.1</v>
+        <v>7.8</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="D62">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="E62">
-        <v>1.3</v>
+        <v>28.7</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G62">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B63">
-        <v>13.6</v>
+        <v>36.7</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="D63">
-        <v>7.3</v>
+        <v>1.9</v>
       </c>
       <c r="E63">
-        <v>5.7</v>
+        <v>39.5</v>
       </c>
       <c r="F63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B64">
-        <v>12.7</v>
+        <v>38.8</v>
       </c>
       <c r="C64">
-        <v>24.1</v>
+        <v>3.3</v>
       </c>
       <c r="D64">
-        <v>12.5</v>
+        <v>11.2</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="F64">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="G64">
         <v>0.3</v>
@@ -1972,73 +1972,73 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B65">
-        <v>7.3</v>
+        <v>14.6</v>
       </c>
       <c r="C65">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D65">
-        <v>10.3</v>
+        <v>31.8</v>
       </c>
       <c r="E65">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="F65">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G65">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B66">
-        <v>7.8</v>
+        <v>25.4</v>
       </c>
       <c r="C66">
         <v>1.1</v>
       </c>
       <c r="D66">
-        <v>2.4</v>
+        <v>36.8</v>
       </c>
       <c r="E66">
-        <v>28.7</v>
+        <v>3.9</v>
       </c>
       <c r="F66">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G66">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B67">
-        <v>36.7</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="E67">
-        <v>39.5</v>
+        <v>37.6</v>
       </c>
       <c r="F67">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0.2</v>
@@ -2047,300 +2047,175 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B68">
-        <v>38.8</v>
+        <v>13.1</v>
       </c>
       <c r="C68">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>11.2</v>
+        <v>17.8</v>
       </c>
       <c r="E68">
-        <v>2.9</v>
+        <v>29</v>
       </c>
       <c r="F68">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B69">
-        <v>14.6</v>
+        <v>31.8</v>
       </c>
       <c r="C69">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D69">
-        <v>31.8</v>
+        <v>12.6</v>
       </c>
       <c r="E69">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="F69">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G69">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B70">
-        <v>25.4</v>
+        <v>40.4</v>
       </c>
       <c r="C70">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="D70">
-        <v>36.8</v>
+        <v>8.9</v>
       </c>
       <c r="E70">
-        <v>3.9</v>
+        <v>26.4</v>
       </c>
       <c r="F70">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="G70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="D71">
-        <v>6.7</v>
+        <v>55.9</v>
       </c>
       <c r="E71">
-        <v>37.6</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="G71">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B72">
-        <v>13.1</v>
+        <v>10.5</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="D72">
-        <v>17.8</v>
+        <v>12.7</v>
       </c>
       <c r="E72">
-        <v>29</v>
+        <v>20.9</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B73">
-        <v>31.8</v>
+        <v>37.8</v>
       </c>
       <c r="C73">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="D73">
-        <v>12.6</v>
+        <v>2.6</v>
       </c>
       <c r="E73">
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
       <c r="F73">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G73">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B74">
-        <v>40.4</v>
+        <v>23.2</v>
       </c>
       <c r="C74">
-        <v>2.1</v>
+        <v>20.7</v>
       </c>
       <c r="D74">
-        <v>8.9</v>
+        <v>1.7</v>
       </c>
       <c r="E74">
-        <v>26.4</v>
+        <v>12.2</v>
       </c>
       <c r="F74">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
-      </c>
-      <c r="B75">
-        <v>20</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>10.2</v>
-      </c>
-      <c r="E75">
-        <v>21.2</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Vietnam</t>
-        </is>
-      </c>
-      <c r="B76">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="C76">
-        <v>4.2</v>
-      </c>
-      <c r="D76">
-        <v>55.9</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>5.9</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-      <c r="B77">
-        <v>10.5</v>
-      </c>
-      <c r="C77">
-        <v>1.3</v>
-      </c>
-      <c r="D77">
-        <v>12.7</v>
-      </c>
-      <c r="E77">
-        <v>20.9</v>
-      </c>
-      <c r="F77">
-        <v>0.8</v>
-      </c>
-      <c r="G77">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B78">
-        <v>37.8</v>
-      </c>
-      <c r="C78">
-        <v>4.7</v>
-      </c>
-      <c r="D78">
-        <v>2.6</v>
-      </c>
-      <c r="E78">
-        <v>6.7</v>
-      </c>
-      <c r="F78">
-        <v>0.3</v>
-      </c>
-      <c r="G78">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="B79">
-        <v>23.2</v>
-      </c>
-      <c r="C79">
-        <v>20.7</v>
-      </c>
-      <c r="D79">
-        <v>1.7</v>
-      </c>
-      <c r="E79">
-        <v>12.2</v>
-      </c>
-      <c r="F79">
-        <v>0.5</v>
-      </c>
-      <c r="G79">
         <v>0.4</v>
       </c>
     </row>
